--- a/strategies/news_enjoyer/old_news.xlsx
+++ b/strategies/news_enjoyer/old_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>message</t>
   </si>
@@ -22,82 +22,28 @@
     <t>sentiment</t>
   </si>
   <si>
-    <t>elonmusk: @davidsacks so few know this</t>
-  </si>
-  <si>
-    <t>elonmusk: @davidsacks exactly</t>
-  </si>
-  <si>
-    <t>elonmusk: @kristennetten ai+human vs ai+human is the next phase, but the human part will decrease in relevance over time, except perhaps as will, like our limbi</t>
-  </si>
-  <si>
-    <t>elonmusk: @lanceulanoff some</t>
-  </si>
-  <si>
-    <t>elonmusk: @therabbithole84</t>
-  </si>
-  <si>
-    <t>elonmusk: @kanekoathegreat he did it via a pass-through organization (ecohealth)</t>
-  </si>
-  <si>
-    <t>elonmusk: @fasc1nate what if that's just a tiny person?</t>
-  </si>
-  <si>
-    <t>elonmusk: @billym2k @watcherguru there will be a lot of robots</t>
-  </si>
-  <si>
-    <t>chainlink: just as every business now has: * an internet strategy * a mobile strategy * a cloud strategy * an ai strategy every business will have a #web3 stra</t>
-  </si>
-  <si>
-    <t>elonmusk: @thebabylonbee</t>
-  </si>
-  <si>
-    <t>cointelegraph: texas objects to voyager-binance.us deal, court filings shows</t>
-  </si>
-  <si>
-    <t>elonmusk: @fasc1nate</t>
-  </si>
-  <si>
-    <t>gitcoin: don't forget to vote on which core rounds to feature in our upcoming gitcoin grants program click this link to cast your vote today: https://sn</t>
-  </si>
-  <si>
-    <t>coindesk: though inconclusive, new evidence suggests co-founder of the onecoin fraud ruja ignatova and one of the @fbi's 10 most wanted, was murdered by a notor</t>
-  </si>
-  <si>
-    <t>anciliainc: hack $$ on the move. lendhub attacker (0x9d0163e76bbcf776001e639d65f573949a53ab03) has bridged $1m+ hack $$ to eth and tornadoing out. @lendhubdefi ht</t>
-  </si>
-  <si>
-    <t>decrypt: coinflex claims blockchain.com owes over $4.3m in flex</t>
-  </si>
-  <si>
-    <t>secretnetwork: coming tomorrow not traveling to denver for #buidlweek? not to worry, you can still catch some great event content, including the @priv_alliance'</t>
-  </si>
-  <si>
-    <t>decrypt: this week on crypto twitter: nft community wants creator royalties back</t>
-  </si>
-  <si>
-    <t>shib: shibarium... it's time to begin</t>
-  </si>
-  <si>
-    <t>decrypt: 'immeasurable' damage done to crypto by sbf: ava labs ceo</t>
-  </si>
-  <si>
-    <t>shytoshikusama: here's to the first day of the rest of our lives on #shibarium. intake form is live #shibarmy.</t>
-  </si>
-  <si>
-    <t>gitcoin: quote [@indexcoop]() &gt; the $gt</t>
+    <t>rewkang: time based invalidations probably one of the most important lessons from ptj spent a week trying to break $25k on $btc and we couldn't do it. importa</t>
+  </si>
+  <si>
+    <t>the block: nft weekly trading volume on ethereum rises to highest level since may</t>
+  </si>
+  <si>
+    <t>hbar_foundation: have y'all claimed your @liithosent x @justmaiko #nft yet? #builtonhedera</t>
+  </si>
+  <si>
+    <t>elonmusk:</t>
+  </si>
+  <si>
+    <t>dfinity: hey #buidlers , who's at #ethdenver today? @kylpeacock just dropped some serious knowledge bombs with his workshop on 'deploying a dapp on the #inte</t>
+  </si>
+  <si>
+    <t>the information: coinbase to suspend trading of binance usd</t>
+  </si>
+  <si>
+    <t>celoorg: v2 of impact cards are launching at #ethdenver! @impactcards are a unified representation of your impact on, off, and cross-chain. learn more</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -465,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,244 +431,73 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>44983.82771990741</v>
+        <v>44984.84755787037</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>44983.82756944445</v>
+        <v>44984.84711805556</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>44983.82721064815</v>
+        <v>44984.8465162037</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>44983.8253587963</v>
+        <v>44984.8446412037</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>44983.82511574074</v>
+        <v>44984.84381944445</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4">
-        <v>44983.82111111111</v>
+        <v>44984.85069444445</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
-        <v>44983.83232638889</v>
+        <v>44984.85317129629</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>44983.8334375</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>44983.83819444444</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>44983.84011574074</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
-        <v>44983.84171296296</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
-        <v>44983.84361111111</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>44983.84503472222</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
-        <v>44983.86361111111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
-        <v>44983.86887731482</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <v>44983.87523148148</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
-        <v>44983.87587962963</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <v>44983.88189814815</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <v>44983.90035879629</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
-        <v>44983.90204861111</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <v>44983.90233796297</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
-        <v>44983.90362268518</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
